--- a/!Tanulnivaló/Újratervezés kérdés-válasz.xlsx
+++ b/!Tanulnivaló/Újratervezés kérdés-válasz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programozás\GitHub\Adanos93\Adanos93\!Tanulnivaló\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herczog.adam\Desktop\Adanos93-main\Adanos93\!Tanulnivaló\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34C12C2-EF45-44B0-A3CC-BB1F4F96DC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFF94EC-5D8E-40B5-BE25-C1FA9577A2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1824" yWindow="2448" windowWidth="18948" windowHeight="12336" xr2:uid="{711A5AE7-F91B-4FB3-AE2E-AEA20202EC68}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="8820" xr2:uid="{711A5AE7-F91B-4FB3-AE2E-AEA20202EC68}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Melyik attribútum von össze két táblázat cellát vízszintesen?</t>
   </si>
@@ -230,6 +230,66 @@
   </si>
   <si>
     <t>p:hover span</t>
+  </si>
+  <si>
+    <t>A label melyik attribútumában adom meg, hogy melyik inputhoz tartozik?</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>Melyik NEM input típus a HTML5 szerint?</t>
+  </si>
+  <si>
+    <t>spinner</t>
+  </si>
+  <si>
+    <t>Melyik osztállyal hozhatsz létre gombcsoportot?</t>
+  </si>
+  <si>
+    <t>btn-group</t>
+  </si>
+  <si>
+    <t>Melyik Bootstrap osztály formázza meg a formok input és select elemeit?</t>
+  </si>
+  <si>
+    <t>form-control</t>
+  </si>
+  <si>
+    <t>A radio típusú input elemeknek melyik attribútuma kell hogy megegyezzen?</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Melyik NEM Bootstrap button osztály?</t>
+  </si>
+  <si>
+    <t>btn-urgent</t>
+  </si>
+  <si>
+    <t>Melyik könyvtárat használják a Bootstrap JavaScript függvényei?</t>
+  </si>
+  <si>
+    <t>jQuery</t>
+  </si>
+  <si>
+    <t>Melyik a helyes növekvő sorrendje a Bootstrap grid méret osztályainak?</t>
+  </si>
+  <si>
+    <t>col-*, col-sm-*, col-md-*, col-lg-*, col-xl-*</t>
+  </si>
+  <si>
+    <t>Melyik osztály formázza meg a Bootstrap táblázatokat?</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>Melyik osztály teszi csíkossá a táblázat sorait?</t>
+  </si>
+  <si>
+    <t>table-striped</t>
   </si>
 </sst>
 </file>
@@ -607,19 +667,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBD4A0B-30EA-4877-8E88-A62B6BC5975E}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -627,7 +687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -643,7 +703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -651,7 +711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -659,7 +719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -667,7 +727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -675,7 +735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -683,7 +743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -691,7 +751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -699,7 +759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -707,7 +767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -715,7 +775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -723,7 +783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -731,7 +791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -739,7 +799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -747,7 +807,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -755,7 +815,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -763,7 +823,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -771,7 +831,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -779,7 +839,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -787,7 +847,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -795,7 +855,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -803,7 +863,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -811,7 +871,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -819,7 +879,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
@@ -827,7 +887,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -835,7 +895,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
@@ -843,7 +903,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -851,7 +911,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
@@ -859,7 +919,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>60</v>
       </c>
@@ -867,7 +927,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
@@ -875,12 +935,92 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B36" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/!Tanulnivaló/Újratervezés kérdés-válasz.xlsx
+++ b/!Tanulnivaló/Újratervezés kérdés-válasz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herczog.adam\Desktop\Adanos93-main\Adanos93\!Tanulnivaló\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFF94EC-5D8E-40B5-BE25-C1FA9577A2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E22D277-7384-4ADE-8D7A-DD753F4A6ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="8820" xr2:uid="{711A5AE7-F91B-4FB3-AE2E-AEA20202EC68}"/>
+    <workbookView xWindow="15915" yWindow="930" windowWidth="12390" windowHeight="8820" xr2:uid="{711A5AE7-F91B-4FB3-AE2E-AEA20202EC68}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Melyik attribútum von össze két táblázat cellát vízszintesen?</t>
   </si>
@@ -290,6 +290,85 @@
   </si>
   <si>
     <t>table-striped</t>
+  </si>
+  <si>
+    <t>Melyik az a feltétel, aminek NEM kell teljesülnie egy mezőre, ami a felhasználó nevét tartalmazza?</t>
+  </si>
+  <si>
+    <t>Tartalmazzon számot.</t>
+  </si>
+  <si>
+    <t>Mi lesz a ﻿name\tt namename﻿ változó értéke miután lefut az alábbi kód?
+﻿let name=’Pisti’;
+﻿if (name.length &gt; 4)
+﻿    name=‘Dr. ${name}‘;</t>
+  </si>
+  <si>
+    <t>Dr. Pisti
+Mivel igaz, hogy a name hosszabb, mint 4 így a Dr. a name elé kerül.
+A template string használatakor a változót a ${} kifejezésbe lehet beírni</t>
+  </si>
+  <si>
+    <t>Melyik NEM primitív típus a JavaScript nyelvben?</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>Válaszd ki a string metódusokat (több jó válasz)!</t>
+  </si>
+  <si>
+    <t>trim,
+concat,
+toLowerCase</t>
+  </si>
+  <si>
+    <t>Mi lesz az eredménye? String.prototype.toUpperCase.call('Zoli');</t>
+  </si>
+  <si>
+    <t>ZOLI</t>
+  </si>
+  <si>
+    <t>Melyik kulcsszóval NEM lehet változót létrehozni a JavaScript nyelvben?</t>
+  </si>
+  <si>
+    <t>define</t>
+  </si>
+  <si>
+    <t>Mi lesz az eredménye? "22" + 2</t>
+  </si>
+  <si>
+    <t>"222"</t>
+  </si>
+  <si>
+    <t>Mi lesz az age értéke? let age = 2 + 6 / 3;</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Mi lesz a name értéke? let name = `Mz/x${4%2}`</t>
+  </si>
+  <si>
+    <t>Mz/x0</t>
+  </si>
+  <si>
+    <t>Melyik módszer NEM jó a stringek összefűzésére?</t>
+  </si>
+  <si>
+    <t>"Dr. " . "Bob"</t>
+  </si>
+  <si>
+    <t>Mi az eredménye? 4 % 2 ? "Hello" : "World"</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Melyik kódrészlet eredményez hibát?</t>
+  </si>
+  <si>
+    <t>const name = 'Joe'; name = 'Bob';</t>
   </si>
 </sst>
 </file>
@@ -335,14 +414,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -351,6 +424,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -667,276 +749,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBD4A0B-30EA-4877-8E88-A62B6BC5975E}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A57" activeCellId="1" sqref="A50 A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="96.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="67.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B36" t="s">
@@ -944,83 +1026,179 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/!Tanulnivaló/Újratervezés kérdés-válasz.xlsx
+++ b/!Tanulnivaló/Újratervezés kérdés-válasz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herczog.adam\Desktop\Adanos93-main\Adanos93\!Tanulnivaló\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E22D277-7384-4ADE-8D7A-DD753F4A6ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6550F372-A44E-4A55-B15C-92F3D07DCF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15915" yWindow="930" windowWidth="12390" windowHeight="8820" xr2:uid="{711A5AE7-F91B-4FB3-AE2E-AEA20202EC68}"/>
+    <workbookView xWindow="19080" yWindow="2640" windowWidth="16260" windowHeight="10680" xr2:uid="{711A5AE7-F91B-4FB3-AE2E-AEA20202EC68}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="129">
   <si>
     <t>Melyik attribútum von össze két táblázat cellát vízszintesen?</t>
   </si>
@@ -369,6 +369,63 @@
   </si>
   <si>
     <t>const name = 'Joe'; name = 'Bob';</t>
+  </si>
+  <si>
+    <t>Milyen scope -ja van a let és a var változóknak?</t>
+  </si>
+  <si>
+    <t>block, function</t>
+  </si>
+  <si>
+    <t>Indentációnál milyen karaktert használjunk?</t>
+  </si>
+  <si>
+    <t>szóköz</t>
+  </si>
+  <si>
+    <t>Mikor bontsuk a függvényt két külön függvényre?</t>
+  </si>
+  <si>
+    <t>ha hosszabb mint 10 sor és több dolgot is csinál</t>
+  </si>
+  <si>
+    <t>A local scope -ban létrehozott változót tudod-e használni a global scope -ban?</t>
+  </si>
+  <si>
+    <t>nem</t>
+  </si>
+  <si>
+    <t>function compute(x, y, z) { return x * y + z; } - mi lesz az eredmény, ha így hívom meg: compute(0, 10, 1);</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Clean Code szerint mikor írjunk kommentet?</t>
+  </si>
+  <si>
+    <t>ha plusz információra van szükség</t>
+  </si>
+  <si>
+    <t>Melyik a jó változónév a Clean Code szabályai szerint?</t>
+  </si>
+  <si>
+    <t>patrickStar</t>
+  </si>
+  <si>
+    <t>Melyik módszerrel tudok alapértelmezett értéket adni egy függvényparaméternek?</t>
+  </si>
+  <si>
+    <t>function test(x = 10) { … }</t>
+  </si>
+  <si>
+    <t>Mi a kód hibája? const x = 2; { const x = 5; }</t>
+  </si>
+  <si>
+    <t>semmi</t>
+  </si>
+  <si>
+    <t>const age = 44; age = 18;</t>
   </si>
 </sst>
 </file>
@@ -749,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBD4A0B-30EA-4877-8E88-A62B6BC5975E}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A57" activeCellId="1" sqref="A50 A57"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,6 +1258,86 @@
         <v>109</v>
       </c>
     </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/!Tanulnivaló/Újratervezés kérdés-válasz.xlsx
+++ b/!Tanulnivaló/Újratervezés kérdés-válasz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herczog.adam\Desktop\Adanos93-main\Adanos93\!Tanulnivaló\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programozás\GitHub\Adanos93\Adanos93\!Tanulnivaló\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFF94EC-5D8E-40B5-BE25-C1FA9577A2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B8F348-F573-4907-9956-5441D3CA7703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="8820" xr2:uid="{711A5AE7-F91B-4FB3-AE2E-AEA20202EC68}"/>
+    <workbookView xWindow="10536" yWindow="3804" windowWidth="18240" windowHeight="12672" xr2:uid="{711A5AE7-F91B-4FB3-AE2E-AEA20202EC68}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
   <si>
     <t>Melyik attribútum von össze két táblázat cellát vízszintesen?</t>
   </si>
@@ -290,6 +290,336 @@
   </si>
   <si>
     <t>table-striped</t>
+  </si>
+  <si>
+    <t>Melyik az a feltétel, aminek NEM kell teljesülnie egy mezőre, ami a felhasználó nevét tartalmazza?</t>
+  </si>
+  <si>
+    <t>Tartalmazzon számot.</t>
+  </si>
+  <si>
+    <t>Mi lesz a ﻿name\tt namename﻿ változó értéke miután lefut az alábbi kód?
+﻿let name=’Pisti’;
+﻿if (name.length &gt; 4)
+﻿    name=‘Dr. ${name}‘;</t>
+  </si>
+  <si>
+    <t>Dr. Pisti
+Mivel igaz, hogy a name hosszabb, mint 4 így a Dr. a name elé kerül.
+A template string használatakor a változót a ${} kifejezésbe lehet beírni</t>
+  </si>
+  <si>
+    <t>Melyik NEM primitív típus a JavaScript nyelvben?</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>Válaszd ki a string metódusokat (több jó válasz)!</t>
+  </si>
+  <si>
+    <t>trim,
+concat,
+toLowerCase</t>
+  </si>
+  <si>
+    <t>Mi lesz az eredménye? String.prototype.toUpperCase.call('Zoli');</t>
+  </si>
+  <si>
+    <t>ZOLI</t>
+  </si>
+  <si>
+    <t>Melyik kulcsszóval NEM lehet változót létrehozni a JavaScript nyelvben?</t>
+  </si>
+  <si>
+    <t>define</t>
+  </si>
+  <si>
+    <t>Mi lesz az eredménye? "22" + 2</t>
+  </si>
+  <si>
+    <t>"222"</t>
+  </si>
+  <si>
+    <t>Mi lesz az age értéke? let age = 2 + 6 / 3;</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Mi lesz a name értéke? let name = `Mz/x${4%2}`</t>
+  </si>
+  <si>
+    <t>Mz/x0</t>
+  </si>
+  <si>
+    <t>Melyik módszer NEM jó a stringek összefűzésére?</t>
+  </si>
+  <si>
+    <t>"Dr. " . "Bob"</t>
+  </si>
+  <si>
+    <t>Mi az eredménye? 4 % 2 ? "Hello" : "World"</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Melyik kódrészlet eredményez hibát?</t>
+  </si>
+  <si>
+    <t>const name = 'Joe'; name = 'Bob';</t>
+  </si>
+  <si>
+    <t>Milyen scope -ja van a let és a var változóknak?</t>
+  </si>
+  <si>
+    <t>block, function</t>
+  </si>
+  <si>
+    <t>Indentációnál milyen karaktert használjunk?</t>
+  </si>
+  <si>
+    <t>szóköz</t>
+  </si>
+  <si>
+    <t>Mikor bontsuk a függvényt két külön függvényre?</t>
+  </si>
+  <si>
+    <t>ha hosszabb mint 10 sor és több dolgot is csinál</t>
+  </si>
+  <si>
+    <t>A local scope -ban létrehozott változót tudod-e használni a global scope -ban?</t>
+  </si>
+  <si>
+    <t>nem</t>
+  </si>
+  <si>
+    <t>function compute(x, y, z) { return x * y + z; } - mi lesz az eredmény, ha így hívom meg: compute(0, 10, 1);</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Clean Code szerint mikor írjunk kommentet?</t>
+  </si>
+  <si>
+    <t>ha plusz információra van szükség</t>
+  </si>
+  <si>
+    <t>Melyik a jó változónév a Clean Code szabályai szerint?</t>
+  </si>
+  <si>
+    <t>patrickStar</t>
+  </si>
+  <si>
+    <t>Melyik módszerrel tudok alapértelmezett értéket adni egy függvényparaméternek?</t>
+  </si>
+  <si>
+    <t>function test(x = 10) { … }</t>
+  </si>
+  <si>
+    <t>Mi a kód hibája? const x = 2; { const x = 5; }</t>
+  </si>
+  <si>
+    <t>semmi</t>
+  </si>
+  <si>
+    <t>const age = 44; age = 18;</t>
+  </si>
+  <si>
+    <t>Hogy hívják azt a változót, amiben gyűjtjük az értékeket az összegzés során?</t>
+  </si>
+  <si>
+    <t>akkumulátor</t>
+  </si>
+  <si>
+    <t>Melyik a helyes fejléc egy hagyományos for ciklushoz?</t>
+  </si>
+  <si>
+    <t>for (let i = 0; i &lt; a.length; i++) {…}</t>
+  </si>
+  <si>
+    <t>Az unshift metódus mit csinál a tömbbel?</t>
+  </si>
+  <si>
+    <t>Hozzáad egy elemet az elején.</t>
+  </si>
+  <si>
+    <t>A tömbök indexelése milyen számmal kezdődik?</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Mi a pszeudokód előnye?</t>
+  </si>
+  <si>
+    <t>Csak az algoritmust adja meg.</t>
+  </si>
+  <si>
+    <t>Mi a kifejezés eredménye? 3 % 5 &gt; 1 ? 4 : 7</t>
+  </si>
+  <si>
+    <t>Melyik NEM alapvető algoritmus?</t>
+  </si>
+  <si>
+    <t>hatványozás</t>
+  </si>
+  <si>
+    <t>Egy függvénynek átadott objektum hogyan kerül átadásra?</t>
+  </si>
+  <si>
+    <t>Referencia szerint</t>
+  </si>
+  <si>
+    <t>Mi jelenik meg a console -on? let a = [0, 2, 5]; console.log(a[1]);</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>A push metódus mit csinál a tömbbel?</t>
+  </si>
+  <si>
+    <t>Hozzáad egy elemet a végén.</t>
+  </si>
+  <si>
+    <t>Mit ad vissza ez a kifejezés? [1, 3, 6].filter( item =&gt; item % 2 )</t>
+  </si>
+  <si>
+    <t>[1, 3]</t>
+  </si>
+  <si>
+    <t>Milyen párokból állnak az objektumok?</t>
+  </si>
+  <si>
+    <t>key, value</t>
+  </si>
+  <si>
+    <t>Mit ad vissza ez a kifejezés? [1, 3, 6].map( item =&gt; item + 1 )</t>
+  </si>
+  <si>
+    <t>[2, 4, 7]</t>
+  </si>
+  <si>
+    <t>Mit ad vissza ez a kifejezés? [0, true, 'Boo'].filter( item =&gt; item )</t>
+  </si>
+  <si>
+    <t>[true, "Boo"]</t>
+  </si>
+  <si>
+    <t>Mikor jelenti a this a window -t?</t>
+  </si>
+  <si>
+    <t>a js fájl gyökerében, függvényekben</t>
+  </si>
+  <si>
+    <t>Az objektumokhoz tartozó függvényeket hogyan nevezzük?</t>
+  </si>
+  <si>
+    <t>metódus</t>
+  </si>
+  <si>
+    <t>A for…in ciklus az objektum elemeinek melyik részét járja be?</t>
+  </si>
+  <si>
+    <t>a kulcsokat</t>
+  </si>
+  <si>
+    <t>Melyik kifejezés adja vissza azt, hogy Lidi, ha ez az objektum? const user = {nickName: 'Lidi'};</t>
+  </si>
+  <si>
+    <t>user['nickName']</t>
+  </si>
+  <si>
+    <t>Miért lehet a const -al létrehozott objektumot módosítani?</t>
+  </si>
+  <si>
+    <t>Mert az adatkötés a teljes objektumra vonatkozik.</t>
+  </si>
+  <si>
+    <t>Mit ad vissza ez a kifejezés? [2, 4, 7].filter( item =&gt; item % 2 )</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>A ﻿document.querySelector﻿ metódus mit használ az elemek azonosítására?</t>
+  </si>
+  <si>
+    <t>CSS szelektorokat használ.</t>
+  </si>
+  <si>
+    <t>Van-e probléma ezzel a kóddal?
+Const listItems = document.querySelectorAll(´ul#name li´);
+for (const k in listItems) {
+  listItems[k].style.color =´ #ff0000´;
+}</t>
+  </si>
+  <si>
+    <t>Igen, mert a for...in ciklus nem csak az elemeket járja be.
+Az a probléma, hogy a for...in ciklus nem csak az elemeket, hanem a kapott NodeList egyéb tulajdonságait is bejárja, így olyan objektumokra is meghívja a kód a style.color settert, amelyeknek ilyen tulajdonsága nincs.</t>
+  </si>
+  <si>
+    <t>Melyik metódussal tudok hozzáadni egy új eseménykezelőt egy DOM elemhez?</t>
+  </si>
+  <si>
+    <t>addEventListener</t>
+  </si>
+  <si>
+    <t>Melyik metódussal tudom lekérni egy DOM Element adott attribútumának az értékét?</t>
+  </si>
+  <si>
+    <t>getAttribute</t>
+  </si>
+  <si>
+    <t>Melyik a helyes módszer, ha a DOM Element -et úgy akarom bővíteni, hogy megörökölje az összes elem?</t>
+  </si>
+  <si>
+    <t>Element.prototype.hi = function() {…}</t>
+  </si>
+  <si>
+    <t>Mi az esemény neve, ami arról értesít, hogy megváltozott egy űrlap vezérlő értéke?</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>Melyik űrlap esemény váltódik ki, amikor elküldik az űrlapot?</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>Melyik metódussal tudok hozzáadni egy új DOM elemet egy meglévőhöz?</t>
+  </si>
+  <si>
+    <t>appendChild</t>
+  </si>
+  <si>
+    <t>Melyik NEM MouseEvent a következők közül?</t>
+  </si>
+  <si>
+    <t>hover</t>
+  </si>
+  <si>
+    <t>Hogyan kérem le egy elem szülő elemét?</t>
+  </si>
+  <si>
+    <t>element.parentElement</t>
+  </si>
+  <si>
+    <t>Melyik metódussal tudok létrehozni új DOM elemet?</t>
+  </si>
+  <si>
+    <t>document.createElement</t>
+  </si>
+  <si>
+    <t>Melyik metódussal tudom beállítani egy DOM Element adott attribútumának az értékét?</t>
+  </si>
+  <si>
+    <t>setAttribute</t>
   </si>
 </sst>
 </file>
@@ -335,23 +665,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,360 +1005,793 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBD4A0B-30EA-4877-8E88-A62B6BC5975E}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="96.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="67.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B100" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/!Tanulnivaló/Újratervezés kérdés-válasz.xlsx
+++ b/!Tanulnivaló/Újratervezés kérdés-válasz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programozás\GitHub\Adanos93\Adanos93\!Tanulnivaló\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B8F348-F573-4907-9956-5441D3CA7703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D67F501-8656-4A17-84E9-1349F3A15919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10536" yWindow="3804" windowWidth="18240" windowHeight="12672" xr2:uid="{711A5AE7-F91B-4FB3-AE2E-AEA20202EC68}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="27300" windowHeight="12672" xr2:uid="{711A5AE7-F91B-4FB3-AE2E-AEA20202EC68}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="229">
   <si>
     <t>Melyik attribútum von össze két táblázat cellát vízszintesen?</t>
   </si>
@@ -620,6 +620,121 @@
   </si>
   <si>
     <t>setAttribute</t>
+  </si>
+  <si>
+    <t>Mi a metódus neve, aminek át tudom adni a függvényemet, ami a Promise eredményét lekezeli?</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>Milyen típusú értékkel tér vissza a fetch függvény?</t>
+  </si>
+  <si>
+    <t>Promise</t>
+  </si>
+  <si>
+    <t>A kódban melyik a callback függvény? button.addEventListener('click', handleClick);</t>
+  </si>
+  <si>
+    <t>handleClick</t>
+  </si>
+  <si>
+    <t>Hogyan tudok aszinkron működést megvalósítani a JavaScript nyelvben? (több helyes válasz)</t>
+  </si>
+  <si>
+    <t>callback használatával, 
+Promise használatával</t>
+  </si>
+  <si>
+    <t>Melyik HTTP metódust használjuk az adatok lekérésére a szerverről?</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>Mit kell tennem, ha nem tudom, hogyan kell használni egy NPM csomagot?</t>
+  </si>
+  <si>
+    <t>Megnézem az NPM oldalán a dokumentációt.</t>
+  </si>
+  <si>
+    <t>Melyik JSON metódus készít a string -ből objektumot?</t>
+  </si>
+  <si>
+    <t>JSON.parse</t>
+  </si>
+  <si>
+    <t>Melyik a helyes parancs, ha csomagot szeretnék telepíteni az NPM használatával?</t>
+  </si>
+  <si>
+    <t>npm i json-server</t>
+  </si>
+  <si>
+    <t>Melyik JSON metódus készít az objektumból string -et?</t>
+  </si>
+  <si>
+    <t>JSON.stringify</t>
+  </si>
+  <si>
+    <t>Melyik állapot jelzi, hogy a Promise lefutott, függetlenül attól, hogy sikeres volt-e?</t>
+  </si>
+  <si>
+    <t>settled</t>
+  </si>
+  <si>
+    <t>Mit érdemes csinálni, mielőtt a törlési parancsot elküldjük a szervernek?</t>
+  </si>
+  <si>
+    <t>megerősítő kérdést feltenni</t>
+  </si>
+  <si>
+    <t>Mit jelent a CRUD -ból az U betű?</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>A példákban melyik technológiával indítunk HTTP kéréseket a szerver felé?</t>
+  </si>
+  <si>
+    <t>fetch</t>
+  </si>
+  <si>
+    <t>A CRUD Delete műveletének melyik HTTP metódust szokták megfeleltetni?</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>Melyik kód hoz létre egy új táblázat sort?</t>
+  </si>
+  <si>
+    <t>document.createElement('tr')</t>
+  </si>
+  <si>
+    <t>Alapból milyen színsémája lesz a következő Bootstrap gombnak? &lt;button type="button" class="btn btn-danger"&gt;Send&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>vörös</t>
+  </si>
+  <si>
+    <t>Mivel állítom be, hogy a fetch milyen módon küldje el a HTTP requestet a szervernek?</t>
+  </si>
+  <si>
+    <t>A fetchOptions -ben a method -dal.</t>
+  </si>
+  <si>
+    <t>Tudok-e küldeni egy másik domain névre HTTP kérést JavaScript alól?</t>
+  </si>
+  <si>
+    <t>csak akkor, ha a CORS header be van állítva</t>
+  </si>
+  <si>
+    <t>A Bootstrap milyen osztályt követel meg a form beviteli mezők formázásához?</t>
+  </si>
+  <si>
+    <t>Hogyan tudom lekérni egy DOM elem szülő elemét?</t>
   </si>
 </sst>
 </file>
@@ -1005,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBD4A0B-30EA-4877-8E88-A62B6BC5975E}">
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1794,6 +1909,166 @@
         <v>191</v>
       </c>
     </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B110" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B122" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
